--- a/data/trans_dic/P62-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P62-Clase-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.3801607597488805</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.4905210529136902</v>
+        <v>0.4905210529136901</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.6347092930535727</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6788633052011038</v>
+        <v>0.6799261507571676</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4338585075707375</v>
+        <v>0.4367413390021894</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5806926001036149</v>
+        <v>0.5800543744369837</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.6249525483619319</v>
+        <v>0.6207276747956625</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3626860261195658</v>
+        <v>0.3624107495309523</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2236668421809531</v>
+        <v>0.2307598490869975</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2880604168011021</v>
+        <v>0.2862173041442533</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4170316907951849</v>
+        <v>0.4234109953312828</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.5636849528396434</v>
+        <v>0.5688281259257878</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3605512803923362</v>
+        <v>0.3569446541687801</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.4665161037646968</v>
+        <v>0.4685089616549848</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.5521375862704305</v>
+        <v>0.5460023921702017</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8413577353419261</v>
+        <v>0.8396239780469006</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6241087222694919</v>
+        <v>0.6277488986020516</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7333189000078399</v>
+        <v>0.7338778801224946</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.7583547694516601</v>
+        <v>0.7576381307197443</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.567263621655301</v>
+        <v>0.5740178244885696</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4051776313916798</v>
+        <v>0.416965850064794</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.476768805047515</v>
+        <v>0.4695274733577947</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5571820250111457</v>
+        <v>0.5594431467832245</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.7029452499191774</v>
+        <v>0.7038046427224464</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4939435802399317</v>
+        <v>0.5005985230308271</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.5844098409068955</v>
+        <v>0.5917777082595893</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.6523479293411857</v>
+        <v>0.6508107656664925</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.2126279150882453</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.4730940763722434</v>
+        <v>0.4730940763722435</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.4424675844443385</v>
@@ -833,7 +833,7 @@
         <v>0.3744021374258097</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.6037412570982094</v>
+        <v>0.6037412570982095</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7150093419578355</v>
+        <v>0.7168159655970815</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5147668992824029</v>
+        <v>0.520542153749347</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5056941089162723</v>
+        <v>0.5046614128298108</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.6570036536772281</v>
+        <v>0.6544703995151476</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1236178115079334</v>
+        <v>0.1218709056702701</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1497947090833145</v>
+        <v>0.1609008083158404</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1524547082862271</v>
+        <v>0.1561253514933178</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.4018057868762298</v>
+        <v>0.4058444786994024</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3755175975645421</v>
+        <v>0.3782293905774154</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.3475813181565262</v>
+        <v>0.3480700880385796</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.318788256640972</v>
+        <v>0.3164571653813446</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.5552450929896134</v>
+        <v>0.5554373255193684</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8801956708200863</v>
+        <v>0.8813143510086919</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6704454975683303</v>
+        <v>0.674605394135271</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6778220529463557</v>
+        <v>0.6753959991921838</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7855812351581863</v>
+        <v>0.7854859414049102</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2695077540092047</v>
+        <v>0.2587890598622682</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3012699818883653</v>
+        <v>0.3047293178757398</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2823506223606602</v>
+        <v>0.2794103896436206</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.5425011962643173</v>
+        <v>0.5422909912375159</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.5122937794818406</v>
+        <v>0.5113654899421236</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.4626175297248257</v>
+        <v>0.4566092431949987</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4274328862125886</v>
+        <v>0.4290019191818559</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.6512749927878004</v>
+        <v>0.6480771009321639</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.5787945430436348</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.7199220000711861</v>
+        <v>0.719922000071186</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.1944714997756703</v>
@@ -969,7 +969,7 @@
         <v>0.5598191523222888</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.6588510929931974</v>
+        <v>0.6588510929931977</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6596202557343345</v>
+        <v>0.6682868265911808</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4686423719003001</v>
+        <v>0.4745939718053993</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5215132174578549</v>
+        <v>0.5187541601146285</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6503583488628667</v>
+        <v>0.6578815784418833</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1293776268939127</v>
+        <v>0.1281645344400627</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3308846080050354</v>
+        <v>0.3288520979408056</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.4072992432937515</v>
+        <v>0.3932675029749136</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4680485819845766</v>
+        <v>0.4631707320868196</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4538373740912581</v>
+        <v>0.4583321046237547</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.4469955865615765</v>
+        <v>0.4472031349341202</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.5102899793478738</v>
+        <v>0.5074530368048071</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.6108791637856327</v>
+        <v>0.6091888067180782</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8042237209080609</v>
+        <v>0.8019329569316113</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5861624749816502</v>
+        <v>0.5893366956738179</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6330674597383555</v>
+        <v>0.6372782888902168</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7762238127520205</v>
+        <v>0.7801604614571953</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2832080720252889</v>
+        <v>0.2798462529749957</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4890659779488817</v>
+        <v>0.483634833108936</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.6183913134091245</v>
+        <v>0.6081196793869218</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.6146119849510243</v>
+        <v>0.6194832355082809</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.5771228832207814</v>
+        <v>0.5812323682115254</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.541395205016833</v>
+        <v>0.5433215885282093</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.6110456716608575</v>
+        <v>0.6162486960677805</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.7059669939561978</v>
+        <v>0.7044843225604452</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.5258263071180014</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.6307167359059915</v>
+        <v>0.6307167359059914</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.2787861879726576</v>
@@ -1105,7 +1105,7 @@
         <v>0.4423228855132739</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.5166083228175268</v>
+        <v>0.5166083228175269</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6471618373798983</v>
+        <v>0.6453935281044665</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4477757806117377</v>
+        <v>0.4484171578630696</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4835807998040055</v>
+        <v>0.4848654032312938</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5826224125041506</v>
+        <v>0.5807135461223893</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2379578355379572</v>
+        <v>0.2406383621211005</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2095805780296851</v>
+        <v>0.2139166060660017</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2770579304950566</v>
+        <v>0.2779284160366317</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3225351234841838</v>
+        <v>0.3249414526540903</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.4797520255720961</v>
+        <v>0.4782514209045808</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.3650850103920534</v>
+        <v>0.3645958070829589</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.4137421252202136</v>
+        <v>0.4131040909470861</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.4843812617047248</v>
+        <v>0.4839480096324352</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7238670861691977</v>
+        <v>0.7256846954703262</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5253002854890606</v>
+        <v>0.5246297228832212</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5623457298144373</v>
+        <v>0.5651148343466998</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6744017935552878</v>
+        <v>0.6743513494104033</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3251127708640602</v>
+        <v>0.3216188128036339</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.292952757359914</v>
+        <v>0.2968126045105641</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.369288922334662</v>
+        <v>0.3700517137132274</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4026618102789943</v>
+        <v>0.4020032752274093</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5431133490903924</v>
+        <v>0.5456595375658487</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.4241615184508029</v>
+        <v>0.4235068533025332</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4765028620292653</v>
+        <v>0.4737698091283032</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.5484978683040309</v>
+        <v>0.5499821621419371</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.4558177714799536</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.586427248570126</v>
+        <v>0.5864272485701261</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.2846126244506836</v>
@@ -1229,7 +1229,7 @@
         <v>0.3887359588254715</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.4698399538930644</v>
+        <v>0.4698399538930643</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.3547955315712372</v>
@@ -1241,7 +1241,7 @@
         <v>0.4184217319072215</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.5086574971669885</v>
+        <v>0.5086574971669886</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4305667802802807</v>
+        <v>0.4335809644706693</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3794395946072405</v>
+        <v>0.3834675891607201</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4087816536821648</v>
+        <v>0.4083798522104975</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.5247126885631759</v>
+        <v>0.5136646147292222</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2347583120306678</v>
+        <v>0.2420333743614302</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3498386908694076</v>
+        <v>0.3490343597726323</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3438983220054767</v>
+        <v>0.3490673550273086</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.4346651519520602</v>
+        <v>0.4337147433694053</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3117417439953932</v>
+        <v>0.3106810587328131</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3777032668954592</v>
+        <v>0.3778299893615902</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.3820557687202515</v>
+        <v>0.3876338958746237</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.4773590500347802</v>
+        <v>0.4757354566751519</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.584893093668548</v>
+        <v>0.5834220915464058</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4866482885766757</v>
+        <v>0.4908832466265864</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5020262170927683</v>
+        <v>0.5096073629233453</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6412810204353068</v>
+        <v>0.647079248975043</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3383300990805673</v>
+        <v>0.3371497597911108</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4293245259398859</v>
+        <v>0.431593272705983</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4356600759552465</v>
+        <v>0.4328735298077315</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5045412622492869</v>
+        <v>0.5068929070765794</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.401705643147472</v>
+        <v>0.3930087163782737</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.4413159750314833</v>
+        <v>0.4395473325204711</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.44895285364504</v>
+        <v>0.4519631426999876</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.5359840278432437</v>
+        <v>0.5407339312549603</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.2360901695831703</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.2533613432527924</v>
+        <v>0.2533613432527923</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.1850310954823369</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.01858181175710994</v>
+        <v>0.01653557707061023</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.03486933297993708</v>
+        <v>0.03548922391795074</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.0148532157127842</v>
+        <v>0.0139126647776545</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.02309744164181197</v>
+        <v>0.02368382139499338</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1975899645752354</v>
+        <v>0.1964282674159819</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2204807703165879</v>
+        <v>0.2193254780775632</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2085147264966291</v>
+        <v>0.2092532331225739</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2290826453480096</v>
+        <v>0.2260829862753356</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1662884169632943</v>
+        <v>0.1665148044394664</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1875256126655906</v>
+        <v>0.1868983699773869</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1720249259435895</v>
+        <v>0.1707182727894257</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.18826678963574</v>
+        <v>0.188055061140943</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.06787089040001686</v>
+        <v>0.06061139280483654</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1020880056669382</v>
+        <v>0.1012385464501029</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.05868961908477507</v>
+        <v>0.05804952591648961</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.0794790579507552</v>
+        <v>0.08500788833967146</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2433106970773907</v>
+        <v>0.2457192515378503</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2734785960969946</v>
+        <v>0.2726083042870774</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2652730701829424</v>
+        <v>0.2633830504761655</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2786485739349068</v>
+        <v>0.2797368764872005</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2071987202456519</v>
+        <v>0.2050302485763259</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2324557516135861</v>
+        <v>0.2349744930671542</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2178800249420568</v>
+        <v>0.2168233211000527</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2293373065245838</v>
+        <v>0.2312258542688967</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.5185096569012692</v>
+        <v>0.5159195904027111</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.415113791276315</v>
+        <v>0.417067706641153</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4413485802508555</v>
+        <v>0.4395871446624199</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.530030442633853</v>
+        <v>0.5335106953238731</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2283666595753265</v>
+        <v>0.2298518425763984</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.272779922888586</v>
+        <v>0.2726866711440697</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2822769585767392</v>
+        <v>0.2838189621658392</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3545374270388022</v>
+        <v>0.3532585435664588</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.3400918065739604</v>
+        <v>0.3414512423868308</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.3411389070796125</v>
+        <v>0.3415414091820693</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.358657039428246</v>
+        <v>0.3593389615630167</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.435217712890557</v>
+        <v>0.4343033848543478</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.5713412289997011</v>
+        <v>0.5701802561187492</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.460577204706144</v>
+        <v>0.463316691683986</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4854358576499683</v>
+        <v>0.4878627359478982</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5884405614556193</v>
+        <v>0.5906485541009395</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2637606763972115</v>
+        <v>0.2661231255831856</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3088866305263325</v>
+        <v>0.3097326370303695</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3198936311810716</v>
+        <v>0.3218805743228965</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3890119574576614</v>
+        <v>0.3902817520425083</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3716809492428935</v>
+        <v>0.3726764322224276</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3687200255582967</v>
+        <v>0.3704697114360916</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.3884883739149091</v>
+        <v>0.3881662953741208</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.4662681378498711</v>
+        <v>0.4663679455235216</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>77995</v>
+        <v>78117</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>57409</v>
+        <v>57791</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>86778</v>
+        <v>86683</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>104871</v>
+        <v>104162</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>32473</v>
+        <v>32449</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>26621</v>
+        <v>27465</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>37608</v>
+        <v>37367</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>62310</v>
+        <v>63263</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>115232</v>
+        <v>116283</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>90622</v>
+        <v>89716</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>130622</v>
+        <v>131180</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>175149</v>
+        <v>173202</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>96664</v>
+        <v>96464</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>82584</v>
+        <v>83066</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>109586</v>
+        <v>109670</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>127256</v>
+        <v>127136</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>50791</v>
+        <v>51395</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>48225</v>
+        <v>49628</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>62245</v>
+        <v>61300</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>83250</v>
+        <v>83588</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>143700</v>
+        <v>143876</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>124150</v>
+        <v>125822</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>163632</v>
+        <v>165695</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>206937</v>
+        <v>206450</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>68767</v>
+        <v>68941</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>82518</v>
+        <v>83444</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>67356</v>
+        <v>67218</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>106075</v>
+        <v>105666</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>17069</v>
+        <v>16828</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>25014</v>
+        <v>26869</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>27619</v>
+        <v>28284</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>59258</v>
+        <v>59853</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>87967</v>
+        <v>88603</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>113761</v>
+        <v>113921</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>100213</v>
+        <v>99480</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>171532</v>
+        <v>171591</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>84655</v>
+        <v>84762</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>107474</v>
+        <v>108141</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>90283</v>
+        <v>89959</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>126834</v>
+        <v>126818</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>37213</v>
+        <v>35733</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>50309</v>
+        <v>50887</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>51151</v>
+        <v>50618</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>80007</v>
+        <v>79976</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>120008</v>
+        <v>119790</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>151411</v>
+        <v>149445</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>134366</v>
+        <v>134859</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>201198</v>
+        <v>200210</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>105808</v>
+        <v>107199</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>163474</v>
+        <v>165550</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>157478</v>
+        <v>156645</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>129551</v>
+        <v>131049</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>14122</v>
+        <v>13989</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>48162</v>
+        <v>47866</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>39875</v>
+        <v>38501</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>48924</v>
+        <v>48414</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>122336</v>
+        <v>123548</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>220987</v>
+        <v>221089</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>204047</v>
+        <v>202913</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>185540</v>
+        <v>185026</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>129004</v>
+        <v>128636</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>204468</v>
+        <v>205575</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>191164</v>
+        <v>192435</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>154623</v>
+        <v>155407</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>30912</v>
+        <v>30545</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>71186</v>
+        <v>70396</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>60541</v>
+        <v>59536</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>64244</v>
+        <v>64753</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>155569</v>
+        <v>156676</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>267656</v>
+        <v>268608</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>244336</v>
+        <v>246416</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>214421</v>
+        <v>213970</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>341224</v>
+        <v>340292</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>323140</v>
+        <v>323602</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>317946</v>
+        <v>318791</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>297026</v>
+        <v>296053</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>96463</v>
+        <v>97550</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>96541</v>
+        <v>98538</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>125560</v>
+        <v>125955</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>123212</v>
+        <v>124132</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>447437</v>
+        <v>446038</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>431637</v>
+        <v>431059</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>459533</v>
+        <v>458824</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>431982</v>
+        <v>431595</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>381668</v>
+        <v>382627</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>379086</v>
+        <v>378602</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>369733</v>
+        <v>371553</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>343816</v>
+        <v>343790</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>131794</v>
+        <v>130378</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>134945</v>
+        <v>136723</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>167359</v>
+        <v>167704</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>153822</v>
+        <v>153570</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>506531</v>
+        <v>508906</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>501483</v>
+        <v>500709</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>529240</v>
+        <v>526204</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>489162</v>
+        <v>490486</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>70091</v>
+        <v>70581</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>134994</v>
+        <v>136427</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>173686</v>
+        <v>173516</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>135078</v>
+        <v>132234</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>83436</v>
+        <v>86022</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>201925</v>
+        <v>201461</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>184070</v>
+        <v>186836</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>224181</v>
+        <v>223691</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>161544</v>
+        <v>160995</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>352384</v>
+        <v>352503</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>366824</v>
+        <v>372180</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>369088</v>
+        <v>367833</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>95213</v>
+        <v>94974</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>173136</v>
+        <v>174643</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>213305</v>
+        <v>216526</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>165086</v>
+        <v>166579</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>120247</v>
+        <v>119827</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>247804</v>
+        <v>249113</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>233184</v>
+        <v>231693</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>260220</v>
+        <v>261433</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>208163</v>
+        <v>203657</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>411733</v>
+        <v>410083</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>431054</v>
+        <v>433944</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>414416</v>
+        <v>418089</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>5481</v>
+        <v>4877</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>9052</v>
+        <v>9213</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>4058</v>
+        <v>3801</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>5409</v>
+        <v>5546</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>246574</v>
+        <v>245125</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>242521</v>
+        <v>241250</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>219628</v>
+        <v>220406</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>192331</v>
+        <v>189812</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>256559</v>
+        <v>256908</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>254951</v>
+        <v>254098</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>228197</v>
+        <v>226463</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>202152</v>
+        <v>201925</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>20018</v>
+        <v>17877</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>26501</v>
+        <v>26280</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>16036</v>
+        <v>15861</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>18613</v>
+        <v>19908</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>303630</v>
+        <v>306636</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>300817</v>
+        <v>299859</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>279411</v>
+        <v>277420</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>233945</v>
+        <v>234858</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>319678</v>
+        <v>316332</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>316035</v>
+        <v>319460</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>289025</v>
+        <v>287623</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>246252</v>
+        <v>248280</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>703343</v>
+        <v>699830</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>821287</v>
+        <v>825153</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>856307</v>
+        <v>852890</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>810885</v>
+        <v>816209</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>535626</v>
+        <v>539110</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>700871</v>
+        <v>700632</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>691959</v>
+        <v>695739</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>758269</v>
+        <v>755533</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>1258999</v>
+        <v>1264032</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>1551441</v>
+        <v>1553272</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>1575062</v>
+        <v>1578057</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>1596656</v>
+        <v>1593302</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>775008</v>
+        <v>773433</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>911235</v>
+        <v>916655</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>941846</v>
+        <v>946554</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>900245</v>
+        <v>903623</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>618642</v>
+        <v>624183</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>793642</v>
+        <v>795816</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>784171</v>
+        <v>789042</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>832001</v>
+        <v>834717</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1375940</v>
+        <v>1379625</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>1676876</v>
+        <v>1684833</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>1706068</v>
+        <v>1704654</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>1710569</v>
+        <v>1710935</v>
       </c>
     </row>
     <row r="32">
